--- a/matlab/validation_examples/test_profile_flat_land_100km.xlsx
+++ b/matlab/validation_examples/test_profile_flat_land_100km.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\v2.15.02.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U80824876\Meetings\ITUR\SG3\P.452\matlab\P452_v17.0\create_examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="7968" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21465" windowHeight="16575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Path profile" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Path profile parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Transmission losses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,37 +173,37 @@
     <t>Trans-Horizon</t>
   </si>
   <si>
-    <t>Lb_ref</t>
-  </si>
-  <si>
-    <t>Lbfsg_ref</t>
-  </si>
-  <si>
-    <t>Lb0p_ref</t>
-  </si>
-  <si>
-    <t>Lb0b_ref</t>
-  </si>
-  <si>
-    <t>Ldsph_ref</t>
-  </si>
-  <si>
-    <t>Ld50_ref</t>
-  </si>
-  <si>
-    <t>Ldp_ref</t>
-  </si>
-  <si>
-    <t>Lbs_ref</t>
-  </si>
-  <si>
-    <t>Lba_ref</t>
+    <t>Lb</t>
+  </si>
+  <si>
+    <t>Lbfsg</t>
+  </si>
+  <si>
+    <t>Lb0p</t>
+  </si>
+  <si>
+    <t>Lb0b</t>
+  </si>
+  <si>
+    <t>Ldsph</t>
+  </si>
+  <si>
+    <t>Ld50</t>
+  </si>
+  <si>
+    <t>Ldp</t>
+  </si>
+  <si>
+    <t>Lbs</t>
+  </si>
+  <si>
+    <t>Lba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -297,9 +297,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -332,9 +332,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -518,9 +518,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -575,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -597,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -674,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -784,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -839,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -949,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -982,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -993,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1653,9 +1653,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>50.73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1834,9 +1834,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9617.7596153846207</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-1.4421049429892701</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>-1.4421049429892701</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>7.5132219483583702</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1.2241612671723501</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2007,9 +2007,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2052,34 +2052,34 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>193.14102928045401</v>
+        <v>193.14102927888612</v>
       </c>
       <c r="D3">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E3">
-        <v>139.190909193929</v>
+        <v>139.09090919392861</v>
       </c>
       <c r="F3">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G3">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H3">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I3">
-        <v>93.023693208824298</v>
+        <v>93.023693208824312</v>
       </c>
       <c r="J3">
-        <v>193.14102931372301</v>
+        <v>193.14102931372304</v>
       </c>
       <c r="K3">
-        <v>236.87852236466401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236.8785223646637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -2087,34 +2087,34 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>155.72840381700701</v>
+        <v>155.72840009367042</v>
       </c>
       <c r="D4">
-        <v>112.520223763367</v>
+        <v>112.42022376336665</v>
       </c>
       <c r="E4">
-        <v>112.498798771672</v>
+        <v>112.39879877167232</v>
       </c>
       <c r="F4">
-        <v>108.58601199968901</v>
+        <v>108.48601199968863</v>
       </c>
       <c r="G4">
-        <v>65.521268449579907</v>
+        <v>65.521268449579864</v>
       </c>
       <c r="H4">
-        <v>65.521268449579907</v>
+        <v>65.521268449579864</v>
       </c>
       <c r="I4">
-        <v>65.425133373254994</v>
+        <v>65.425133373254965</v>
       </c>
       <c r="J4">
-        <v>155.728482822366</v>
+        <v>155.72848282236629</v>
       </c>
       <c r="K4">
-        <v>239.911308806107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239.9113088061074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.15</v>
       </c>
@@ -2122,34 +2122,34 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>161.22241417032501</v>
+        <v>161.22240657099056</v>
       </c>
       <c r="D5">
-        <v>116.065806368586</v>
+        <v>115.96580636858629</v>
       </c>
       <c r="E5">
-        <v>116.04438137689201</v>
+        <v>115.94438137689195</v>
       </c>
       <c r="F5">
-        <v>112.131594604908</v>
+        <v>112.03159460490826</v>
       </c>
       <c r="G5">
-        <v>65.942514500104394</v>
+        <v>65.942514500104352</v>
       </c>
       <c r="H5">
-        <v>65.942514500104394</v>
+        <v>65.942514500104352</v>
       </c>
       <c r="I5">
-        <v>65.824343077344096</v>
+        <v>65.824343077344054</v>
       </c>
       <c r="J5">
-        <v>161.222575423541</v>
+        <v>161.22257542354072</v>
       </c>
       <c r="K5">
-        <v>238.00582928889301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>238.00582928889261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.22500000000000001</v>
       </c>
@@ -2157,16 +2157,16 @@
         <v>49</v>
       </c>
       <c r="C6">
-        <v>166.58572128913801</v>
+        <v>166.58571137170429</v>
       </c>
       <c r="D6">
-        <v>119.635682903101</v>
+        <v>119.53568290310118</v>
       </c>
       <c r="E6">
-        <v>119.61425791140699</v>
+        <v>119.51425791140684</v>
       </c>
       <c r="F6">
-        <v>115.70147113942301</v>
+        <v>115.60147113942315</v>
       </c>
       <c r="G6">
         <v>67.184466560265406</v>
@@ -2178,13 +2178,13 @@
         <v>67.0396538329272</v>
       </c>
       <c r="J6">
-        <v>166.585931733487</v>
+        <v>166.58593173348697</v>
       </c>
       <c r="K6">
-        <v>234.180076593352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>234.18007659335177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.33750000000000002</v>
       </c>
@@ -2192,16 +2192,16 @@
         <v>49</v>
       </c>
       <c r="C7">
-        <v>171.83275737544</v>
+        <v>171.83274952418594</v>
       </c>
       <c r="D7">
-        <v>123.24439759199301</v>
+        <v>123.14439759199314</v>
       </c>
       <c r="E7">
-        <v>123.222972600299</v>
+        <v>123.12297260029881</v>
       </c>
       <c r="F7">
-        <v>119.310185828315</v>
+        <v>119.21018582831513</v>
       </c>
       <c r="G7">
         <v>69.360543320043902</v>
@@ -2210,16 +2210,16 @@
         <v>69.360543320043902</v>
       </c>
       <c r="I7">
-        <v>69.185277596415801</v>
+        <v>69.185277596415759</v>
       </c>
       <c r="J7">
-        <v>171.83292397444799</v>
+        <v>171.83292397444791</v>
       </c>
       <c r="K7">
-        <v>228.547817990548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228.54781799054805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.50624999999999998</v>
       </c>
@@ -2227,16 +2227,16 @@
         <v>49</v>
       </c>
       <c r="C8">
-        <v>176.96674625582199</v>
+        <v>176.96674269898091</v>
       </c>
       <c r="D8">
-        <v>126.89570125501901</v>
+        <v>126.79570125501905</v>
       </c>
       <c r="E8">
-        <v>126.874276263325</v>
+        <v>126.77427626332472</v>
       </c>
       <c r="F8">
-        <v>122.961489491341</v>
+        <v>122.86148949134105</v>
       </c>
       <c r="G8">
         <v>72.597385820197502</v>
@@ -2245,16 +2245,16 @@
         <v>72.597385820197502</v>
       </c>
       <c r="I8">
-        <v>72.387337919475399</v>
+        <v>72.387337919475428</v>
       </c>
       <c r="J8">
-        <v>176.966821728242</v>
+        <v>176.96682172824208</v>
       </c>
       <c r="K8">
-        <v>222.88932534492201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222.88932534492227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.75937500000000002</v>
       </c>
@@ -2262,34 +2262,34 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>181.96174825411401</v>
+        <v>181.9617473894254</v>
       </c>
       <c r="D9">
-        <v>130.56434225530401</v>
+        <v>130.46434225530393</v>
       </c>
       <c r="E9">
-        <v>130.54291726361001</v>
+        <v>130.44291726360959</v>
       </c>
       <c r="F9">
-        <v>126.63013049162601</v>
+        <v>126.53013049162593</v>
       </c>
       <c r="G9">
-        <v>77.034452607410103</v>
+        <v>77.034452607410145</v>
       </c>
       <c r="H9">
-        <v>77.034452607410103</v>
+        <v>77.034452607410145</v>
       </c>
       <c r="I9">
         <v>76.784722748443698</v>
       </c>
       <c r="J9">
-        <v>181.96176660165199</v>
+        <v>181.9617666016525</v>
       </c>
       <c r="K9">
-        <v>226.97467875012401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>226.97467875012362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.1390625000000001</v>
       </c>
@@ -2297,34 +2297,34 @@
         <v>49</v>
       </c>
       <c r="C10">
-        <v>186.777522201925</v>
+        <v>186.77752209665999</v>
       </c>
       <c r="D10">
-        <v>134.21049035650901</v>
+        <v>134.11049035650873</v>
       </c>
       <c r="E10">
-        <v>134.18906536481401</v>
+        <v>134.08906536481439</v>
       </c>
       <c r="F10">
-        <v>130.27627859283101</v>
+        <v>130.17627859283073</v>
       </c>
       <c r="G10">
-        <v>82.822161413172395</v>
+        <v>82.822161413172381</v>
       </c>
       <c r="H10">
-        <v>82.822161413172395</v>
+        <v>82.822161413172381</v>
       </c>
       <c r="I10">
-        <v>82.527232151682199</v>
+        <v>82.527232151682213</v>
       </c>
       <c r="J10">
-        <v>186.777524435494</v>
+        <v>186.77752443549437</v>
       </c>
       <c r="K10">
-        <v>231.09784347628499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231.09784347628491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.7085937499999999</v>
       </c>
@@ -2332,34 +2332,34 @@
         <v>49</v>
       </c>
       <c r="C11">
-        <v>191.397521428928</v>
+        <v>191.39752142296075</v>
       </c>
       <c r="D11">
-        <v>137.818642072969</v>
+        <v>137.71864207296912</v>
       </c>
       <c r="E11">
-        <v>137.79721708127499</v>
+        <v>137.69721708127477</v>
       </c>
       <c r="F11">
-        <v>133.88443030929099</v>
+        <v>133.78443030929111</v>
       </c>
       <c r="G11">
-        <v>90.117771288703494</v>
+        <v>90.117771288703537</v>
       </c>
       <c r="H11">
-        <v>90.117771288703494</v>
+        <v>90.117771288703537</v>
       </c>
       <c r="I11">
-        <v>89.771472957399496</v>
+        <v>89.771472957399524</v>
       </c>
       <c r="J11">
-        <v>191.39752155555399</v>
+        <v>191.39752155555374</v>
       </c>
       <c r="K11">
-        <v>235.252042917268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>235.25204291726769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.5628906250000001</v>
       </c>
@@ -2367,16 +2367,16 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>195.83307981687901</v>
+        <v>195.83307981687932</v>
       </c>
       <c r="D12">
-        <v>141.403674911823</v>
+        <v>141.30367491182264</v>
       </c>
       <c r="E12">
-        <v>141.382249920128</v>
+        <v>141.28224992012829</v>
       </c>
       <c r="F12">
-        <v>137.469463148145</v>
+        <v>137.36946314814463</v>
       </c>
       <c r="G12">
         <v>99.078341711956</v>
@@ -2385,16 +2385,16 @@
         <v>99.078341711956</v>
       </c>
       <c r="I12">
-        <v>98.673834941078894</v>
+        <v>98.673834941078908</v>
       </c>
       <c r="J12">
-        <v>195.83307982096201</v>
+        <v>195.83307982096193</v>
       </c>
       <c r="K12">
-        <v>239.46214436349601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239.46214436349587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.8443359374999999</v>
       </c>
@@ -2402,34 +2402,34 @@
         <v>49</v>
       </c>
       <c r="C13">
-        <v>200.10592944476701</v>
+        <v>200.10592944476667</v>
       </c>
       <c r="D13">
-        <v>144.99611278934</v>
+        <v>144.89611278934009</v>
       </c>
       <c r="E13">
-        <v>144.974687797646</v>
+        <v>144.87468779764575</v>
       </c>
       <c r="F13">
-        <v>141.061901025662</v>
+        <v>140.96190102566209</v>
       </c>
       <c r="G13">
-        <v>109.851363142907</v>
+        <v>109.85136314290709</v>
       </c>
       <c r="H13">
-        <v>109.851363142907</v>
+        <v>109.85136314290709</v>
       </c>
       <c r="I13">
-        <v>109.38112988442001</v>
+        <v>109.38112988442015</v>
       </c>
       <c r="J13">
-        <v>200.105929448784</v>
+        <v>200.10592944878371</v>
       </c>
       <c r="K13">
-        <v>243.770107178448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>243.77010717844809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5.7665039062499996</v>
       </c>
@@ -2437,34 +2437,34 @@
         <v>49</v>
       </c>
       <c r="C14">
-        <v>204.24401395860099</v>
+        <v>204.24401395860053</v>
       </c>
       <c r="D14">
-        <v>148.64510733746101</v>
+        <v>148.54510733746099</v>
       </c>
       <c r="E14">
-        <v>148.62368234576701</v>
+        <v>148.52368234576664</v>
       </c>
       <c r="F14">
-        <v>144.71089557378301</v>
+        <v>144.61089557378298</v>
       </c>
       <c r="G14">
-        <v>122.567498140602</v>
+        <v>122.56749814060228</v>
       </c>
       <c r="H14">
-        <v>122.567498140602</v>
+        <v>122.56749814060228</v>
       </c>
       <c r="I14">
         <v>122.023293877076</v>
       </c>
       <c r="J14">
-        <v>204.24401396205101</v>
+        <v>204.2440139620511</v>
       </c>
       <c r="K14">
-        <v>248.238173313353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>248.2381733133526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8.6497558593750004</v>
       </c>
@@ -2472,34 +2472,34 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>208.30005333633099</v>
+        <v>208.30005333633125</v>
       </c>
       <c r="D15">
-        <v>152.46106484080099</v>
+        <v>152.36106484080085</v>
       </c>
       <c r="E15">
-        <v>152.43963984910599</v>
+        <v>152.3396398491065</v>
       </c>
       <c r="F15">
-        <v>148.52685307712301</v>
+        <v>148.42685307712284</v>
       </c>
       <c r="G15">
-        <v>137.34733322193799</v>
+        <v>137.34733322193802</v>
       </c>
       <c r="H15">
-        <v>137.34733322193799</v>
+        <v>137.34733322193802</v>
       </c>
       <c r="I15">
-        <v>136.71998007029899</v>
+        <v>136.71998007029882</v>
       </c>
       <c r="J15">
-        <v>208.300053338834</v>
+        <v>208.30005333883372</v>
       </c>
       <c r="K15">
-        <v>252.991733727754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>252.99173372775445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12.9746337890625</v>
       </c>
@@ -2507,34 +2507,34 @@
         <v>49</v>
       </c>
       <c r="C16">
-        <v>212.451712095549</v>
+        <v>212.45171209554937</v>
       </c>
       <c r="D16">
-        <v>156.85148091481099</v>
+        <v>156.75148091481057</v>
       </c>
       <c r="E16">
-        <v>156.83005592311599</v>
+        <v>156.73005592311623</v>
       </c>
       <c r="F16">
-        <v>152.91726915113301</v>
+        <v>152.81726915113256</v>
       </c>
       <c r="G16">
-        <v>154.49731076203301</v>
+        <v>154.49731076203329</v>
       </c>
       <c r="H16">
-        <v>154.49731076203301</v>
+        <v>154.49731076203329</v>
       </c>
       <c r="I16">
-        <v>153.77441156027399</v>
+        <v>153.77441156027365</v>
       </c>
       <c r="J16">
-        <v>212.45171209691699</v>
+        <v>212.45171209691688</v>
       </c>
       <c r="K16">
-        <v>258.45543720791602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258.45543720791625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19.461950683593798</v>
       </c>
@@ -2542,34 +2542,34 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>218.979299586096</v>
+        <v>218.97929958609652</v>
       </c>
       <c r="D17">
-        <v>167.357728404444</v>
+        <v>167.25772840444375</v>
       </c>
       <c r="E17">
-        <v>167.336303412749</v>
+        <v>167.23630341274941</v>
       </c>
       <c r="F17">
-        <v>163.423516640766</v>
+        <v>163.32351664076575</v>
       </c>
       <c r="G17">
-        <v>174.52379749036999</v>
+        <v>174.52379749036959</v>
       </c>
       <c r="H17">
-        <v>174.52379749036999</v>
+        <v>174.52379749036959</v>
       </c>
       <c r="I17">
-        <v>173.69016432208201</v>
+        <v>173.69016432208184</v>
       </c>
       <c r="J17">
-        <v>218.979299586221</v>
+        <v>218.9792995862208</v>
       </c>
       <c r="K17">
-        <v>270.19029207772502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>270.19029207772491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>29.192926025390602</v>
       </c>
@@ -2577,34 +2577,34 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>223.02956002876701</v>
+        <v>223.02956002876743</v>
       </c>
       <c r="D18">
-        <v>171.38359146048799</v>
+        <v>171.28359146048771</v>
       </c>
       <c r="E18">
-        <v>171.36216646879299</v>
+        <v>171.26216646879337</v>
       </c>
       <c r="F18">
-        <v>167.44937969681001</v>
+        <v>167.34937969680971</v>
       </c>
       <c r="G18">
-        <v>197.79712602203401</v>
+        <v>197.79712602203364</v>
       </c>
       <c r="H18">
-        <v>197.79712602203401</v>
+        <v>197.79712602203364</v>
       </c>
       <c r="I18">
-        <v>196.83723231560401</v>
+        <v>196.83723231560361</v>
       </c>
       <c r="J18">
-        <v>223.029560028833</v>
+        <v>223.0295600288332</v>
       </c>
       <c r="K18">
-        <v>275.622559500362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>275.62255950036183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>43.789389038085901</v>
       </c>
@@ -2612,34 +2612,34 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>233.01462535560501</v>
+        <v>233.01462535560523</v>
       </c>
       <c r="D19">
-        <v>182.64769329537299</v>
+        <v>182.54769329537294</v>
       </c>
       <c r="E19">
-        <v>182.62626830367901</v>
+        <v>182.52626830367859</v>
       </c>
       <c r="F19">
-        <v>178.71348153169501</v>
+        <v>178.61348153169493</v>
       </c>
       <c r="G19">
-        <v>224.71095613865501</v>
+        <v>224.71095613865452</v>
       </c>
       <c r="H19">
-        <v>224.71095613865501</v>
+        <v>224.71095613865452</v>
       </c>
       <c r="I19">
-        <v>223.60722967535199</v>
+        <v>223.60722967535176</v>
       </c>
       <c r="J19">
-        <v>233.014625355623</v>
+        <v>233.0146253556226</v>
       </c>
       <c r="K19">
-        <v>288.49659244447503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288.49659244447525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>50</v>
       </c>
@@ -2647,34 +2647,34 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>254.025963040725</v>
+        <v>254.02596304072532</v>
       </c>
       <c r="D20">
-        <v>205.306026118587</v>
+        <v>205.20602611858726</v>
       </c>
       <c r="E20">
-        <v>205.28460112689299</v>
+        <v>205.18460112689291</v>
       </c>
       <c r="F20">
-        <v>201.37181435490899</v>
+        <v>201.27181435490925</v>
       </c>
       <c r="G20">
-        <v>234.38188874234501</v>
+        <v>234.38188874234504</v>
       </c>
       <c r="H20">
-        <v>234.38188874234501</v>
+        <v>234.38188874234504</v>
       </c>
       <c r="I20">
-        <v>233.22684933327699</v>
+        <v>233.22684933327702</v>
       </c>
       <c r="J20">
-        <v>254.02596304073199</v>
+        <v>254.02596304073154</v>
       </c>
       <c r="K20">
-        <v>311.73056930247299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>311.73056930247293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2682,34 +2682,34 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>152.44341595229301</v>
+        <v>152.44332153589514</v>
       </c>
       <c r="D21">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E21">
-        <v>135.06362980249099</v>
+        <v>134.9636298024906</v>
       </c>
       <c r="F21">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G21">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H21">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I21">
-        <v>60.266071359199202</v>
+        <v>60.266071359199231</v>
       </c>
       <c r="J21">
-        <v>178.87096086715101</v>
+        <v>178.87096086715115</v>
       </c>
       <c r="K21">
-        <v>152.44077031158699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152.44077031158696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2717,34 +2717,34 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>169.319637550858</v>
+        <v>169.31963674083423</v>
       </c>
       <c r="D22">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E22">
-        <v>136.53379638492399</v>
+        <v>136.43379638492365</v>
       </c>
       <c r="F22">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G22">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H22">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I22">
-        <v>67.610362406748706</v>
+        <v>67.61036240674872</v>
       </c>
       <c r="J22">
-        <v>182.73234684554501</v>
+        <v>182.73234684554512</v>
       </c>
       <c r="K22">
-        <v>169.323933641439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>169.32393364143945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2752,34 +2752,34 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>178.99849228775199</v>
+        <v>178.99849171843186</v>
       </c>
       <c r="D23">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E23">
-        <v>137.12726949821001</v>
+        <v>137.02726949820962</v>
       </c>
       <c r="F23">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G23">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H23">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I23">
-        <v>71.659207447299096</v>
+        <v>71.659207447299138</v>
       </c>
       <c r="J23">
-        <v>184.46527515733499</v>
+        <v>184.46527515733524</v>
       </c>
       <c r="K23">
-        <v>179.18092299135199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>179.18092299135245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2787,34 +2787,34 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>184.60550599643901</v>
+        <v>184.60550576214717</v>
       </c>
       <c r="D24">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E24">
-        <v>137.505523639665</v>
+        <v>137.40552363966503</v>
       </c>
       <c r="F24">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G24">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H24">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I24">
-        <v>74.520646350694506</v>
+        <v>74.520646350694449</v>
       </c>
       <c r="J24">
-        <v>185.64757879504899</v>
+        <v>185.64757879504924</v>
       </c>
       <c r="K24">
-        <v>186.69987112491501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>186.69987112491526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2822,34 +2822,34 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>186.456268034136</v>
+        <v>186.45626800327199</v>
       </c>
       <c r="D25">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E25">
-        <v>137.78376120945001</v>
+        <v>137.6837612094501</v>
       </c>
       <c r="F25">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G25">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H25">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I25">
-        <v>76.806701359222899</v>
+        <v>76.806701359222927</v>
       </c>
       <c r="J25">
-        <v>186.56817917875699</v>
+        <v>186.56817917875711</v>
       </c>
       <c r="K25">
-        <v>192.951255230589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>192.95125523058894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2857,34 +2857,34 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>187.322191543738</v>
+        <v>187.32219153996908</v>
       </c>
       <c r="D26">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E26">
-        <v>138.00396296735701</v>
+        <v>137.9039629673567</v>
       </c>
       <c r="F26">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G26">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H26">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I26">
-        <v>78.750713366796703</v>
+        <v>78.750713366796731</v>
       </c>
       <c r="J26">
-        <v>187.335553913578</v>
+        <v>187.33555391357757</v>
       </c>
       <c r="K26">
-        <v>198.38311056333299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>198.38311056333325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2892,34 +2892,34 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>188.001045497598</v>
+        <v>188.00104549704596</v>
       </c>
       <c r="D27">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E27">
-        <v>138.18621033992201</v>
+        <v>138.08621033992193</v>
       </c>
       <c r="F27">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G27">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H27">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I27">
-        <v>80.468307415242407</v>
+        <v>80.468307415242379</v>
       </c>
       <c r="J27">
-        <v>188.00299869770399</v>
+        <v>188.00299869770365</v>
       </c>
       <c r="K27">
-        <v>203.23196514863901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203.23196514863869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2927,34 +2927,34 @@
         <v>22</v>
       </c>
       <c r="C28">
-        <v>188.60074227033499</v>
+        <v>188.60074227023949</v>
       </c>
       <c r="D28">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E28">
-        <v>138.34168347367401</v>
+        <v>138.24168347367353</v>
       </c>
       <c r="F28">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G28">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H28">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I28">
-        <v>82.025900483661601</v>
+        <v>82.025900483661644</v>
       </c>
       <c r="J28">
-        <v>188.601080253313</v>
+        <v>188.60108025331348</v>
       </c>
       <c r="K28">
-        <v>207.64013049446999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207.6401304944699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2962,34 +2962,34 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>189.149258141215</v>
+        <v>189.14925814119562</v>
       </c>
       <c r="D29">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E29">
-        <v>138.47725089440601</v>
+        <v>138.37725089440644</v>
       </c>
       <c r="F29">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G29">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H29">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I29">
-        <v>83.465551295443007</v>
+        <v>83.465551295442992</v>
       </c>
       <c r="J29">
-        <v>189.149325196234</v>
+        <v>189.14932519623409</v>
       </c>
       <c r="K29">
-        <v>211.70084385279401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211.70084385279358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2997,34 +2997,34 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>189.661341738207</v>
+        <v>189.66134173820245</v>
       </c>
       <c r="D30">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E30">
-        <v>138.59743608064301</v>
+        <v>138.49743608064267</v>
       </c>
       <c r="F30">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G30">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H30">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I30">
         <v>84.815849396105506</v>
       </c>
       <c r="J30">
-        <v>189.661356639275</v>
+        <v>189.66135663927469</v>
       </c>
       <c r="K30">
-        <v>215.47898502595001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>215.4789850259499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3032,34 +3032,34 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>190.14752034747701</v>
+        <v>190.14752034747556</v>
       </c>
       <c r="D31">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E31">
-        <v>138.70537673166299</v>
+        <v>138.60537673166255</v>
       </c>
       <c r="F31">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G31">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H31">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I31">
-        <v>86.097334671556993</v>
+        <v>86.097334671557022</v>
       </c>
       <c r="J31">
         <v>190.14752399413999</v>
       </c>
       <c r="K31">
-        <v>219.02177982599301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>219.02177982599275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3067,34 +3067,34 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>190.616487077714</v>
+        <v>190.61648707771343</v>
       </c>
       <c r="D32">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E32">
-        <v>138.80333873177901</v>
+        <v>138.70333873177867</v>
       </c>
       <c r="F32">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G32">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H32">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I32">
-        <v>87.3254583769329</v>
+        <v>87.325458376932843</v>
       </c>
       <c r="J32">
-        <v>190.61648804840701</v>
+        <v>190.61648804840655</v>
       </c>
       <c r="K32">
-        <v>222.36482691183701</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>222.36482691183738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3102,34 +3102,34 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>191.07644374264501</v>
+        <v>191.07644374264524</v>
       </c>
       <c r="D33">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E33">
-        <v>138.89301192793599</v>
+        <v>138.79301192793613</v>
       </c>
       <c r="F33">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G33">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H33">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I33">
-        <v>88.512323264346506</v>
+        <v>88.51232326434652</v>
       </c>
       <c r="J33">
-        <v>191.07644402119101</v>
+        <v>191.07644402119104</v>
       </c>
       <c r="K33">
-        <v>225.53572150369101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>225.53572150369124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3137,34 +3137,34 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>191.536515918464</v>
+        <v>191.53651591795392</v>
       </c>
       <c r="D34">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E34">
-        <v>138.975690222098</v>
+        <v>138.87569022209809</v>
       </c>
       <c r="F34">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G34">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H34">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I34">
-        <v>89.667770214895498</v>
+        <v>89.667770214895484</v>
       </c>
       <c r="J34">
-        <v>191.53651600412601</v>
+        <v>191.53651600412576</v>
       </c>
       <c r="K34">
-        <v>228.55635013661299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228.55635013661279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3172,34 +3172,34 @@
         <v>43</v>
       </c>
       <c r="C35">
-        <v>192.00929665595899</v>
+        <v>192.00929665319569</v>
       </c>
       <c r="D35">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E35">
-        <v>139.052386357389</v>
+        <v>138.95238635738923</v>
       </c>
       <c r="F35">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G35">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H35">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I35">
         <v>90.800094804082093</v>
       </c>
       <c r="J35">
-        <v>192.009296714588</v>
+        <v>192.00929671458849</v>
       </c>
       <c r="K35">
-        <v>231.44440627981299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>231.44440627981311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3207,34 +3207,34 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>192.51820070766701</v>
+        <v>192.51820070564594</v>
       </c>
       <c r="D36">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E36">
-        <v>139.12390790438701</v>
+        <v>139.02390790438736</v>
       </c>
       <c r="F36">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G36">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H36">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I36">
-        <v>91.916545873726207</v>
+        <v>91.916545873726136</v>
       </c>
       <c r="J36">
-        <v>192.51820075055201</v>
+        <v>192.51820075055187</v>
       </c>
       <c r="K36">
-        <v>234.214426874455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>234.21442687445497</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3242,31 +3242,31 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>193.14102928045401</v>
+        <v>193.14102927888612</v>
       </c>
       <c r="D37">
-        <v>139.21233418562301</v>
+        <v>139.11233418562296</v>
       </c>
       <c r="E37">
-        <v>139.190909193929</v>
+        <v>139.09090919392861</v>
       </c>
       <c r="F37">
-        <v>135.278122421945</v>
+        <v>135.17812242194495</v>
       </c>
       <c r="G37">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="H37">
-        <v>93.391749455607496</v>
+        <v>93.39174945560751</v>
       </c>
       <c r="I37">
-        <v>93.023693208824298</v>
+        <v>93.023693208824312</v>
       </c>
       <c r="J37">
-        <v>193.14102931372301</v>
+        <v>193.14102931372304</v>
       </c>
       <c r="K37">
-        <v>236.87852236466401</v>
+        <v>236.8785223646637</v>
       </c>
     </row>
   </sheetData>
